--- a/answers.xlsx
+++ b/answers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omara\Desktop\Remontada\websites\risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B713F-4F1E-4FB6-B5EB-CBBB56D4FBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED51B768-953B-43DE-AB0D-49A460BB2FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0C3D333-EE04-4B69-8B30-87BDBE800166}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="623">
   <si>
     <t>ليونيل</t>
   </si>
@@ -729,9 +729,6 @@
     <t>توتي</t>
   </si>
   <si>
-    <t>أيدير</t>
-  </si>
-  <si>
     <t>جاريث باري</t>
   </si>
   <si>
@@ -828,9 +825,6 @@
     <t>Groupama</t>
   </si>
   <si>
-    <t>اليوروبا ليغ</t>
-  </si>
-  <si>
     <t>السوبر الأوروبي 2018</t>
   </si>
   <si>
@@ -1036,6 +1030,879 @@
   </si>
   <si>
     <t>تشابى ألونسو</t>
+  </si>
+  <si>
+    <t>الدورى الأوروبى</t>
+  </si>
+  <si>
+    <t>إيدير</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> انشيلوتي</t>
+  </si>
+  <si>
+    <t>المؤتمر الأوروبي</t>
+  </si>
+  <si>
+    <t>البرازيل</t>
+  </si>
+  <si>
+    <t>إنزاجي</t>
+  </si>
+  <si>
+    <t>البرتغال</t>
+  </si>
+  <si>
+    <t>أياكس</t>
+  </si>
+  <si>
+    <t>يانكولوفسكي</t>
+  </si>
+  <si>
+    <t>دزيكو</t>
+  </si>
+  <si>
+    <t>بلاكبيرن</t>
+  </si>
+  <si>
+    <t>كالادزي</t>
+  </si>
+  <si>
+    <t>ألدايير</t>
+  </si>
+  <si>
+    <t>تركيا</t>
+  </si>
+  <si>
+    <t>ماني</t>
+  </si>
+  <si>
+    <t>2011 - 2012</t>
+  </si>
+  <si>
+    <t>زيدان</t>
+  </si>
+  <si>
+    <t>زلاتكو داليتش</t>
+  </si>
+  <si>
+    <t>فلومينيسي</t>
+  </si>
+  <si>
+    <t>مايكل اوين</t>
+  </si>
+  <si>
+    <t>استيبان جرانيرو</t>
+  </si>
+  <si>
+    <t>فاسكيز</t>
+  </si>
+  <si>
+    <t>الفرنسي</t>
+  </si>
+  <si>
+    <t>أوساسونا وسرقسطة</t>
+  </si>
+  <si>
+    <t>باير ليفركوزن</t>
+  </si>
+  <si>
+    <t>دريس ميرتينز</t>
+  </si>
+  <si>
+    <t>شالكه</t>
+  </si>
+  <si>
+    <t>مالاجا</t>
+  </si>
+  <si>
+    <t>ماريك هامشيك</t>
+  </si>
+  <si>
+    <t>ياسين براهيمي</t>
+  </si>
+  <si>
+    <t>استراليا 2010</t>
+  </si>
+  <si>
+    <t>ساو باولو</t>
+  </si>
+  <si>
+    <t>لويز ادريانو</t>
+  </si>
+  <si>
+    <t>ريال سرقسطة</t>
+  </si>
+  <si>
+    <t>ماتياس أوليفيرا</t>
+  </si>
+  <si>
+    <t>لامبارد</t>
+  </si>
+  <si>
+    <t>الاتحاد</t>
+  </si>
+  <si>
+    <t>انتر ميامي</t>
+  </si>
+  <si>
+    <t>دروجبا</t>
+  </si>
+  <si>
+    <t>سان ماميس</t>
+  </si>
+  <si>
+    <t>ريفر بليت</t>
+  </si>
+  <si>
+    <t>بونوتشي</t>
+  </si>
+  <si>
+    <t>أتاتورك الأولمبي</t>
+  </si>
+  <si>
+    <t>ميلان</t>
+  </si>
+  <si>
+    <t>أزبيليكويتا</t>
+  </si>
+  <si>
+    <t>آرتيميو فرانشي</t>
+  </si>
+  <si>
+    <t>لويجي ريفا</t>
+  </si>
+  <si>
+    <t>سيلتا فيغو</t>
+  </si>
+  <si>
+    <t>سواريز</t>
+  </si>
+  <si>
+    <t>ماورو ايكاردي</t>
+  </si>
+  <si>
+    <t>نوتينجهام فوريست</t>
+  </si>
+  <si>
+    <t>إشبيلية</t>
+  </si>
+  <si>
+    <t>مازيمبي</t>
+  </si>
+  <si>
+    <t>ساليرنتانا الإيطالي</t>
+  </si>
+  <si>
+    <t>دي سي يونايتد</t>
+  </si>
+  <si>
+    <t>أياجو أسباس</t>
+  </si>
+  <si>
+    <t>بورديسو</t>
+  </si>
+  <si>
+    <t>ترابزون سبور</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كروس </t>
+  </si>
+  <si>
+    <t>مونتاري</t>
+  </si>
+  <si>
+    <t>اوباميانج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشيتشاريتو </t>
+  </si>
+  <si>
+    <t>اشبيلية - دينيبرو</t>
+  </si>
+  <si>
+    <t>بنزيما</t>
+  </si>
+  <si>
+    <t>جو كول</t>
+  </si>
+  <si>
+    <t>محمد قادر توريه</t>
+  </si>
+  <si>
+    <t>اوسكار كاردوزو</t>
+  </si>
+  <si>
+    <t>فابيو كوينتراو</t>
+  </si>
+  <si>
+    <t>مومباي سيتي</t>
+  </si>
+  <si>
+    <t>كريستوف جالتيير</t>
+  </si>
+  <si>
+    <t>هال سيتي</t>
+  </si>
+  <si>
+    <t>تياجو الكانتارا</t>
+  </si>
+  <si>
+    <t>لوكاس مورا</t>
+  </si>
+  <si>
+    <t>موسى التعمري</t>
+  </si>
+  <si>
+    <t>غرونينغن</t>
+  </si>
+  <si>
+    <t>هالير</t>
+  </si>
+  <si>
+    <t>مونبيلييه</t>
+  </si>
+  <si>
+    <t>رابح ماجر</t>
+  </si>
+  <si>
+    <t>السوبر الإسباني</t>
+  </si>
+  <si>
+    <t>رومانيولي</t>
+  </si>
+  <si>
+    <t>ماركينيوس</t>
+  </si>
+  <si>
+    <t>امين جويري</t>
+  </si>
+  <si>
+    <t>صامويل لينو</t>
+  </si>
+  <si>
+    <t>المجموعات</t>
+  </si>
+  <si>
+    <t>صح</t>
+  </si>
+  <si>
+    <t>رودريجو</t>
+  </si>
+  <si>
+    <t>لا هزيمة</t>
+  </si>
+  <si>
+    <t>أسباس وكوكي</t>
+  </si>
+  <si>
+    <t>مارشيلو ليبي</t>
+  </si>
+  <si>
+    <t>فريدي ليونبيرج</t>
+  </si>
+  <si>
+    <t>لويس أراغونيس</t>
+  </si>
+  <si>
+    <t>سوانزي سيتي</t>
+  </si>
+  <si>
+    <t>تشافي</t>
+  </si>
+  <si>
+    <t>إيرلندا</t>
+  </si>
+  <si>
+    <t>كولو توريه</t>
+  </si>
+  <si>
+    <t>جيمي فاردي</t>
+  </si>
+  <si>
+    <t>لوكا مودريتش</t>
+  </si>
+  <si>
+    <t>دي لا فونتي</t>
+  </si>
+  <si>
+    <t>مونديال 2010</t>
+  </si>
+  <si>
+    <t>إيديرسون</t>
+  </si>
+  <si>
+    <t>أنتي ريبيتش</t>
+  </si>
+  <si>
+    <t>تيديسكو</t>
+  </si>
+  <si>
+    <t>الإمارات الإماراتى</t>
+  </si>
+  <si>
+    <t>بورنموث نوروتش واتفورد</t>
+  </si>
+  <si>
+    <t>ليفايا</t>
+  </si>
+  <si>
+    <t>مونتيلا</t>
+  </si>
+  <si>
+    <t>ساديو ماني</t>
+  </si>
+  <si>
+    <t>دافور شوكر</t>
+  </si>
+  <si>
+    <t>ماركو روسي</t>
+  </si>
+  <si>
+    <t>التشيك</t>
+  </si>
+  <si>
+    <t>سون</t>
+  </si>
+  <si>
+    <t>كورينثيانز</t>
+  </si>
+  <si>
+    <t>زيدان إقبال</t>
+  </si>
+  <si>
+    <t>ألبا وتوريس</t>
+  </si>
+  <si>
+    <t>أوكازاكي</t>
+  </si>
+  <si>
+    <t>غانا</t>
+  </si>
+  <si>
+    <t>بورتو</t>
+  </si>
+  <si>
+    <t>بويول ألمانيا 2010</t>
+  </si>
+  <si>
+    <t>مايا يوشيدا</t>
+  </si>
+  <si>
+    <t>إيلانو</t>
+  </si>
+  <si>
+    <t>الأرجنتين</t>
+  </si>
+  <si>
+    <t>2018-2019</t>
+  </si>
+  <si>
+    <t>جريزمان</t>
+  </si>
+  <si>
+    <t>سيلتيك</t>
+  </si>
+  <si>
+    <t>مالودا</t>
+  </si>
+  <si>
+    <t>هيلاس فيرونا</t>
+  </si>
+  <si>
+    <t>سويسرا</t>
+  </si>
+  <si>
+    <t>بورتو 18/19</t>
+  </si>
+  <si>
+    <t>بريستون</t>
+  </si>
+  <si>
+    <t>مانشينى</t>
+  </si>
+  <si>
+    <t>خافيير زانيتي</t>
+  </si>
+  <si>
+    <t>خواكين</t>
+  </si>
+  <si>
+    <t>ديجون الفرنسي</t>
+  </si>
+  <si>
+    <t>تشافي هيرنانديز</t>
+  </si>
+  <si>
+    <t>هيغواين وكالدارا</t>
+  </si>
+  <si>
+    <t>فالنسيا</t>
+  </si>
+  <si>
+    <t>خمسة</t>
+  </si>
+  <si>
+    <t>جست فونتين</t>
+  </si>
+  <si>
+    <t>سوبر ايطالي 2018</t>
+  </si>
+  <si>
+    <t>فاينورد الهولندي</t>
+  </si>
+  <si>
+    <t>كلاوديو رانييري</t>
+  </si>
+  <si>
+    <t>راؤول البيول</t>
+  </si>
+  <si>
+    <t>نجولو كانتي</t>
+  </si>
+  <si>
+    <t>اليوروبا ليج</t>
+  </si>
+  <si>
+    <t>كارلوس كيروش</t>
+  </si>
+  <si>
+    <t>كريستيان فوتس</t>
+  </si>
+  <si>
+    <t>بيرام ديوف</t>
+  </si>
+  <si>
+    <t>كأس الاتحاد</t>
+  </si>
+  <si>
+    <t>ماركو مارين</t>
+  </si>
+  <si>
+    <t>كينج باور</t>
+  </si>
+  <si>
+    <t>الأول</t>
+  </si>
+  <si>
+    <t>الاتفاق السعودي</t>
+  </si>
+  <si>
+    <t>كندا</t>
+  </si>
+  <si>
+    <t>الميستايا</t>
+  </si>
+  <si>
+    <t>دي ليخت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جالاكسي </t>
+  </si>
+  <si>
+    <t>سيلهيرست بارك</t>
+  </si>
+  <si>
+    <t>ديفيد نيريس</t>
+  </si>
+  <si>
+    <t>جون أرني ريزه</t>
+  </si>
+  <si>
+    <t>يان فيرتونخين</t>
+  </si>
+  <si>
+    <t>دوتش بانك بارك</t>
+  </si>
+  <si>
+    <t>كاسبر دولبيرج</t>
+  </si>
+  <si>
+    <t>ستوك سيتي</t>
+  </si>
+  <si>
+    <t>دريس ميرتنز</t>
+  </si>
+  <si>
+    <t>يورو 2008</t>
+  </si>
+  <si>
+    <t>مانويل بيليجريني</t>
+  </si>
+  <si>
+    <t>محرز</t>
+  </si>
+  <si>
+    <t>كوستاريكا</t>
+  </si>
+  <si>
+    <t>مارسيل ديسايي</t>
+  </si>
+  <si>
+    <t>ليروي فير</t>
+  </si>
+  <si>
+    <t>استراليا 2014</t>
+  </si>
+  <si>
+    <t>خافيير سافيولا</t>
+  </si>
+  <si>
+    <t>دوايت يورك</t>
+  </si>
+  <si>
+    <t>جوناثان دي خوزمان</t>
+  </si>
+  <si>
+    <t>سبورتينغ خيخون</t>
+  </si>
+  <si>
+    <t>ناتشو مونريال</t>
+  </si>
+  <si>
+    <t>ماسون جرينوود</t>
+  </si>
+  <si>
+    <t>مونديال 2006</t>
+  </si>
+  <si>
+    <t>روبرتو مانشيني</t>
+  </si>
+  <si>
+    <t>سبينيس</t>
+  </si>
+  <si>
+    <t>إيدن دزيكو</t>
+  </si>
+  <si>
+    <t>أنجي</t>
+  </si>
+  <si>
+    <t>أكبوم</t>
+  </si>
+  <si>
+    <t>ريال أوفييدو</t>
+  </si>
+  <si>
+    <t>أنخيل جوميز</t>
+  </si>
+  <si>
+    <t>فاتح كاراغومروك</t>
+  </si>
+  <si>
+    <t>جوي بارتون</t>
+  </si>
+  <si>
+    <t>بولون</t>
+  </si>
+  <si>
+    <t>كوبا أمريكا 2019</t>
+  </si>
+  <si>
+    <t>ربع النهائي</t>
+  </si>
+  <si>
+    <t>صامويل</t>
+  </si>
+  <si>
+    <t>إسبانيول</t>
+  </si>
+  <si>
+    <t>ريناتو أوغوستو</t>
+  </si>
+  <si>
+    <t>فيرناندو يورينتي</t>
+  </si>
+  <si>
+    <t>أنتي</t>
+  </si>
+  <si>
+    <t>فاجنر</t>
+  </si>
+  <si>
+    <t>جيانلوكا</t>
+  </si>
+  <si>
+    <t>هاييتي</t>
+  </si>
+  <si>
+    <t>ماركو ستوراري</t>
+  </si>
+  <si>
+    <t>إنسلي</t>
+  </si>
+  <si>
+    <t>كيكي فلوريز</t>
+  </si>
+  <si>
+    <t>فولهام</t>
+  </si>
+  <si>
+    <t>إنتر ميلان</t>
+  </si>
+  <si>
+    <t>أنطوان جريزمان</t>
+  </si>
+  <si>
+    <t>سامبدوريا</t>
+  </si>
+  <si>
+    <t>رومانيا</t>
+  </si>
+  <si>
+    <t>ميدلزبره</t>
+  </si>
+  <si>
+    <t>أتلتيكو مينيرو</t>
+  </si>
+  <si>
+    <t>مونزا</t>
+  </si>
+  <si>
+    <t>أيسلندا</t>
+  </si>
+  <si>
+    <t>نيلاند</t>
+  </si>
+  <si>
+    <t>نيس الفرنسي</t>
+  </si>
+  <si>
+    <t>إيليكيم مانجالا</t>
+  </si>
+  <si>
+    <t>كلاوديو برافو</t>
+  </si>
+  <si>
+    <t>جونزالو راموس</t>
+  </si>
+  <si>
+    <t>أكسيل فيتسل</t>
+  </si>
+  <si>
+    <t>الفريدو دي ستيفانو</t>
+  </si>
+  <si>
+    <t>نيس</t>
+  </si>
+  <si>
+    <t>دييجو كوستا</t>
+  </si>
+  <si>
+    <t>ريال مدريد كاستيا</t>
+  </si>
+  <si>
+    <t>باولو دي كانيو</t>
+  </si>
+  <si>
+    <t>رايو فايكانو</t>
+  </si>
+  <si>
+    <t>أكانجي</t>
+  </si>
+  <si>
+    <t>أوسكار تاباريز</t>
+  </si>
+  <si>
+    <t>سانشيز بيزخوان</t>
+  </si>
+  <si>
+    <t>سيتي جراوند</t>
+  </si>
+  <si>
+    <t>دييجو لوجانو</t>
+  </si>
+  <si>
+    <t>سيلفا</t>
+  </si>
+  <si>
+    <t>ملعب فيليبس</t>
+  </si>
+  <si>
+    <t>بوتافوغو</t>
+  </si>
+  <si>
+    <t>لوديرو وسواريز</t>
+  </si>
+  <si>
+    <t>لويجي فيراريس</t>
+  </si>
+  <si>
+    <t>اسطنبول باشاكشهير</t>
+  </si>
+  <si>
+    <t>ميلان 2007</t>
+  </si>
+  <si>
+    <t>نصف النهائى</t>
+  </si>
+  <si>
+    <t>تياجو سيلفا</t>
+  </si>
+  <si>
+    <t>مورينيو الريال</t>
+  </si>
+  <si>
+    <t>الأبطال 14/15</t>
+  </si>
+  <si>
+    <t>مسعود أوزيل</t>
+  </si>
+  <si>
+    <t>نابولى</t>
+  </si>
+  <si>
+    <t>تشيلسى</t>
+  </si>
+  <si>
+    <t>هيجوايين</t>
+  </si>
+  <si>
+    <t>منتخب إيطاليا</t>
+  </si>
+  <si>
+    <t>الأسبانى 16/17</t>
+  </si>
+  <si>
+    <t>واين رونى</t>
+  </si>
+  <si>
+    <t>منتخبات أفريقية</t>
+  </si>
+  <si>
+    <t>أنشيلوتى الريال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باريس </t>
+  </si>
+  <si>
+    <t>أرين روبن</t>
+  </si>
+  <si>
+    <t>أسبانيا المونديال</t>
+  </si>
+  <si>
+    <t>أرسنال 2004</t>
+  </si>
+  <si>
+    <t>بريمييرليج 19/20</t>
+  </si>
+  <si>
+    <t>كرواتيا</t>
+  </si>
+  <si>
+    <t>مدربون يورو 24</t>
+  </si>
+  <si>
+    <t>إنييستا</t>
+  </si>
+  <si>
+    <t>تشافى</t>
+  </si>
+  <si>
+    <t>آسيويون</t>
+  </si>
+  <si>
+    <t>برازيل المونديال</t>
+  </si>
+  <si>
+    <t>زلاتان ميلان</t>
+  </si>
+  <si>
+    <t>فرنسا المونديال</t>
+  </si>
+  <si>
+    <t>أين التقينا؟</t>
+  </si>
+  <si>
+    <t>أوباميانج</t>
+  </si>
+  <si>
+    <t>أرقام قياسية</t>
+  </si>
+  <si>
+    <t>مدافع إيطالي</t>
+  </si>
+  <si>
+    <t>دورى أسبانى</t>
+  </si>
+  <si>
+    <t>أفارقة</t>
+  </si>
+  <si>
+    <t>فان بيرسى</t>
+  </si>
+  <si>
+    <t>ليستر 2016</t>
+  </si>
+  <si>
+    <t>أياكس 2019</t>
+  </si>
+  <si>
+    <t>ستيفن جيرارد</t>
+  </si>
+  <si>
+    <t>بلجيكا المونديال</t>
+  </si>
+  <si>
+    <t>من هو؟</t>
+  </si>
+  <si>
+    <t>هولندا 2014</t>
+  </si>
+  <si>
+    <t>ديفيد فيا</t>
+  </si>
+  <si>
+    <t>مالاجا 12/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لاعبون إنجليز </t>
+  </si>
+  <si>
+    <t>أندرى بيرلو</t>
+  </si>
+  <si>
+    <t>السيتى 11/12</t>
+  </si>
+  <si>
+    <t>كوتينيو</t>
+  </si>
+  <si>
+    <t>البرازيل 2018</t>
+  </si>
+  <si>
+    <t>يوفنتوس 14/15</t>
+  </si>
+  <si>
+    <t>اسم اللاعب</t>
+  </si>
+  <si>
+    <t>أين يلعب؟</t>
+  </si>
+  <si>
+    <t>بالوتيللى</t>
+  </si>
+  <si>
+    <t>فرنسا 2016</t>
+  </si>
+  <si>
+    <t>انتقالات</t>
+  </si>
+  <si>
+    <t>البرتغال 2022</t>
+  </si>
+  <si>
+    <t>كاسيميرو</t>
+  </si>
+  <si>
+    <t>أوروجواى 2010</t>
+  </si>
+  <si>
+    <t>رودرى</t>
   </si>
 </sst>
 </file>
@@ -1391,26 +2258,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5436927-5E44-4145-83F8-69B633951D0E}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCellId="3" sqref="A44:XFD1048576 E43:XFD43 A43:C43 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1463,16 +2330,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1511,10 +2378,10 @@
         <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
@@ -1525,16 +2392,16 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -1587,16 +2454,16 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -1649,16 +2516,16 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -1691,7 +2558,7 @@
         <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P5" t="s">
         <v>58</v>
@@ -1703,27 +2570,27 @@
         <v>6</v>
       </c>
       <c r="S5" t="s">
+        <v>242</v>
+      </c>
+      <c r="T5" t="s">
         <v>243</v>
-      </c>
-      <c r="T5" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
@@ -1773,19 +2640,19 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
         <v>70</v>
@@ -1818,7 +2685,7 @@
         <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q7" t="s">
         <v>78</v>
@@ -1835,16 +2702,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
         <v>84</v>
@@ -1862,7 +2729,7 @@
         <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K8" t="s">
         <v>88</v>
@@ -1874,7 +2741,7 @@
         <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O8" t="s">
         <v>93</v>
@@ -1897,13 +2764,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
@@ -1915,7 +2782,7 @@
         <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H9">
         <v>22</v>
@@ -1924,10 +2791,10 @@
         <v>98</v>
       </c>
       <c r="J9" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" t="s">
         <v>249</v>
-      </c>
-      <c r="K9" t="s">
-        <v>250</v>
       </c>
       <c r="L9" t="s">
         <v>99</v>
@@ -1959,16 +2826,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
         <v>107</v>
@@ -1977,7 +2844,7 @@
         <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
         <v>109</v>
@@ -1992,7 +2859,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M10" t="s">
         <v>112</v>
@@ -2021,16 +2888,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
         <v>118</v>
@@ -2083,22 +2950,22 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -2131,7 +2998,7 @@
         <v>137</v>
       </c>
       <c r="Q12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R12" t="s">
         <v>142</v>
@@ -2145,16 +3012,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
         <v>151</v>
@@ -2163,10 +3030,10 @@
         <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I13" t="s">
         <v>143</v>
@@ -2175,19 +3042,19 @@
         <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L13" t="s">
         <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N13" t="s">
         <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P13" t="s">
         <v>147</v>
@@ -2199,7 +3066,7 @@
         <v>149</v>
       </c>
       <c r="S13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T13" t="s">
         <v>150</v>
@@ -2216,7 +3083,7 @@
         <v>180</v>
       </c>
       <c r="D14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E14" t="s">
         <v>152</v>
@@ -2269,19 +3136,19 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -2334,13 +3201,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
         <v>181</v>
@@ -2370,7 +3237,7 @@
         <v>186</v>
       </c>
       <c r="N16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O16" t="s">
         <v>187</v>
@@ -2393,10 +3260,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2450,21 +3317,21 @@
         <v>204</v>
       </c>
       <c r="T17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
         <v>205</v>
@@ -2506,7 +3373,7 @@
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S18" t="s">
         <v>214</v>
@@ -2517,13 +3384,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D19" t="s">
         <v>217</v>
@@ -2568,7 +3435,7 @@
         <v>225</v>
       </c>
       <c r="R19" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="S19" t="s">
         <v>226</v>
@@ -2579,16 +3446,16 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
         <v>228</v>
@@ -2597,46 +3464,1286 @@
         <v>229</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H20" t="s">
         <v>230</v>
       </c>
       <c r="I20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J20" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="K20" t="s">
         <v>180</v>
       </c>
       <c r="L20" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" t="s">
         <v>232</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>233</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>234</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>235</v>
-      </c>
-      <c r="P20" t="s">
-        <v>236</v>
       </c>
       <c r="Q20">
         <v>3</v>
       </c>
       <c r="R20" t="s">
+        <v>236</v>
+      </c>
+      <c r="S20" t="s">
         <v>237</v>
       </c>
-      <c r="S20" t="s">
-        <v>238</v>
-      </c>
       <c r="T20" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G21" t="s">
+        <v>335</v>
+      </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" t="s">
+        <v>336</v>
+      </c>
+      <c r="J21" t="s">
+        <v>337</v>
+      </c>
+      <c r="K21">
+        <v>2001</v>
+      </c>
+      <c r="L21" t="s">
+        <v>338</v>
+      </c>
+      <c r="M21" t="s">
+        <v>339</v>
+      </c>
+      <c r="N21" t="s">
+        <v>340</v>
+      </c>
+      <c r="O21" t="s">
+        <v>341</v>
+      </c>
+      <c r="P21" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>342</v>
+      </c>
+      <c r="R21" t="s">
+        <v>343</v>
+      </c>
+      <c r="S21" t="s">
+        <v>344</v>
+      </c>
+      <c r="T21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" t="s">
+        <v>568</v>
+      </c>
+      <c r="C22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>347</v>
+      </c>
+      <c r="I22" t="s">
+        <v>348</v>
+      </c>
+      <c r="J22">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" t="s">
+        <v>349</v>
+      </c>
+      <c r="N22" t="s">
+        <v>350</v>
+      </c>
+      <c r="O22" t="s">
+        <v>351</v>
+      </c>
+      <c r="P22" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>353</v>
+      </c>
+      <c r="R22" t="s">
+        <v>354</v>
+      </c>
+      <c r="S22" t="s">
+        <v>189</v>
+      </c>
+      <c r="T22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C23" t="s">
+        <v>269</v>
+      </c>
+      <c r="D23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" t="s">
+        <v>357</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" t="s">
+        <v>359</v>
+      </c>
+      <c r="L23" t="s">
+        <v>360</v>
+      </c>
+      <c r="M23" t="s">
+        <v>361</v>
+      </c>
+      <c r="N23" t="s">
+        <v>362</v>
+      </c>
+      <c r="O23" t="s">
+        <v>363</v>
+      </c>
+      <c r="P23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>364</v>
+      </c>
+      <c r="R23">
+        <v>8</v>
+      </c>
+      <c r="S23" t="s">
+        <v>365</v>
+      </c>
+      <c r="T23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>573</v>
+      </c>
+      <c r="B24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C24" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" t="s">
+        <v>575</v>
+      </c>
+      <c r="E24" t="s">
+        <v>367</v>
+      </c>
+      <c r="F24" t="s">
+        <v>368</v>
+      </c>
+      <c r="G24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" t="s">
+        <v>370</v>
+      </c>
+      <c r="J24" t="s">
+        <v>371</v>
+      </c>
+      <c r="K24" t="s">
+        <v>372</v>
+      </c>
+      <c r="L24" t="s">
+        <v>373</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>374</v>
+      </c>
+      <c r="O24" t="s">
+        <v>375</v>
+      </c>
+      <c r="P24" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>376</v>
+      </c>
+      <c r="R24" t="s">
+        <v>377</v>
+      </c>
+      <c r="S24" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>576</v>
+      </c>
+      <c r="B25" t="s">
+        <v>535</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>577</v>
+      </c>
+      <c r="E25" t="s">
+        <v>323</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" t="s">
+        <v>381</v>
+      </c>
+      <c r="K25" t="s">
+        <v>382</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>383</v>
+      </c>
+      <c r="N25" t="s">
+        <v>384</v>
+      </c>
+      <c r="O25" t="s">
+        <v>385</v>
+      </c>
+      <c r="P25" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>387</v>
+      </c>
+      <c r="R25" t="s">
+        <v>388</v>
+      </c>
+      <c r="S25" t="s">
+        <v>389</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>578</v>
+      </c>
+      <c r="B26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" t="s">
+        <v>390</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>391</v>
+      </c>
+      <c r="H26" t="s">
+        <v>358</v>
+      </c>
+      <c r="I26" t="s">
+        <v>392</v>
+      </c>
+      <c r="J26" t="s">
+        <v>393</v>
+      </c>
+      <c r="K26" t="s">
+        <v>394</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26" t="s">
+        <v>395</v>
+      </c>
+      <c r="O26" t="s">
+        <v>396</v>
+      </c>
+      <c r="P26" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>398</v>
+      </c>
+      <c r="R26" t="s">
+        <v>399</v>
+      </c>
+      <c r="S26" t="s">
+        <v>400</v>
+      </c>
+      <c r="T26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>580</v>
+      </c>
+      <c r="B27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F27" t="s">
+        <v>403</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>404</v>
+      </c>
+      <c r="I27" t="s">
+        <v>405</v>
+      </c>
+      <c r="J27" t="s">
+        <v>406</v>
+      </c>
+      <c r="K27" t="s">
+        <v>407</v>
+      </c>
+      <c r="L27" t="s">
+        <v>408</v>
+      </c>
+      <c r="M27" t="s">
+        <v>409</v>
+      </c>
+      <c r="N27" t="s">
+        <v>410</v>
+      </c>
+      <c r="O27" t="s">
+        <v>411</v>
+      </c>
+      <c r="P27" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>413</v>
+      </c>
+      <c r="R27" t="s">
+        <v>414</v>
+      </c>
+      <c r="S27" t="s">
+        <v>100</v>
+      </c>
+      <c r="T27" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" t="s">
+        <v>583</v>
+      </c>
+      <c r="E28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F28" t="s">
+        <v>417</v>
+      </c>
+      <c r="G28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H28" t="s">
+        <v>419</v>
+      </c>
+      <c r="I28" t="s">
+        <v>420</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>421</v>
+      </c>
+      <c r="L28" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" t="s">
+        <v>423</v>
+      </c>
+      <c r="N28" t="s">
+        <v>424</v>
+      </c>
+      <c r="O28" t="s">
+        <v>425</v>
+      </c>
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" t="s">
+        <v>426</v>
+      </c>
+      <c r="S28" t="s">
+        <v>149</v>
+      </c>
+      <c r="T28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>584</v>
+      </c>
+      <c r="B29" t="s">
+        <v>585</v>
+      </c>
+      <c r="C29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F29" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" t="s">
+        <v>430</v>
+      </c>
+      <c r="H29" t="s">
+        <v>431</v>
+      </c>
+      <c r="I29" t="s">
+        <v>432</v>
+      </c>
+      <c r="J29" t="s">
+        <v>433</v>
+      </c>
+      <c r="K29" t="s">
+        <v>434</v>
+      </c>
+      <c r="L29" t="s">
+        <v>435</v>
+      </c>
+      <c r="M29" t="s">
+        <v>436</v>
+      </c>
+      <c r="N29" t="s">
+        <v>437</v>
+      </c>
+      <c r="O29" t="s">
+        <v>438</v>
+      </c>
+      <c r="P29">
+        <v>2012</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>439</v>
+      </c>
+      <c r="R29" t="s">
+        <v>440</v>
+      </c>
+      <c r="S29" t="s">
+        <v>441</v>
+      </c>
+      <c r="T29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" t="s">
+        <v>588</v>
+      </c>
+      <c r="C30" t="s">
+        <v>589</v>
+      </c>
+      <c r="D30" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>443</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>444</v>
+      </c>
+      <c r="J30">
+        <v>2011</v>
+      </c>
+      <c r="K30" t="s">
+        <v>445</v>
+      </c>
+      <c r="L30" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>446</v>
+      </c>
+      <c r="O30" t="s">
+        <v>447</v>
+      </c>
+      <c r="P30" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>449</v>
+      </c>
+      <c r="R30" t="s">
+        <v>450</v>
+      </c>
+      <c r="S30" t="s">
+        <v>451</v>
+      </c>
+      <c r="T30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>591</v>
+      </c>
+      <c r="B31" t="s">
+        <v>592</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
+        <v>593</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>453</v>
+      </c>
+      <c r="G31" t="s">
+        <v>454</v>
+      </c>
+      <c r="H31" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>455</v>
+      </c>
+      <c r="K31" t="s">
+        <v>456</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>457</v>
+      </c>
+      <c r="O31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P31" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>458</v>
+      </c>
+      <c r="R31" t="s">
+        <v>459</v>
+      </c>
+      <c r="S31" t="s">
+        <v>460</v>
+      </c>
+      <c r="T31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>594</v>
+      </c>
+      <c r="B32" t="s">
+        <v>595</v>
+      </c>
+      <c r="C32" t="s">
+        <v>596</v>
+      </c>
+      <c r="D32" t="s">
+        <v>597</v>
+      </c>
+      <c r="E32">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
+        <v>462</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>463</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>464</v>
+      </c>
+      <c r="M32" t="s">
+        <v>465</v>
+      </c>
+      <c r="N32" t="s">
+        <v>466</v>
+      </c>
+      <c r="O32" t="s">
+        <v>467</v>
+      </c>
+      <c r="P32" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>469</v>
+      </c>
+      <c r="R32" t="s">
+        <v>470</v>
+      </c>
+      <c r="S32" t="s">
+        <v>471</v>
+      </c>
+      <c r="T32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>598</v>
+      </c>
+      <c r="B33" t="s">
+        <v>599</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" t="s">
+        <v>600</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>472</v>
+      </c>
+      <c r="G33" t="s">
+        <v>252</v>
+      </c>
+      <c r="H33" t="s">
+        <v>473</v>
+      </c>
+      <c r="I33" t="s">
+        <v>439</v>
+      </c>
+      <c r="J33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>474</v>
+      </c>
+      <c r="L33" t="s">
+        <v>475</v>
+      </c>
+      <c r="M33" t="s">
+        <v>427</v>
+      </c>
+      <c r="N33" t="s">
+        <v>476</v>
+      </c>
+      <c r="O33" t="s">
+        <v>477</v>
+      </c>
+      <c r="P33" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>479</v>
+      </c>
+      <c r="R33" t="s">
+        <v>480</v>
+      </c>
+      <c r="S33" t="s">
+        <v>481</v>
+      </c>
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B34" t="s">
+        <v>601</v>
+      </c>
+      <c r="C34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D34" t="s">
+        <v>603</v>
+      </c>
+      <c r="E34" t="s">
+        <v>482</v>
+      </c>
+      <c r="F34" t="s">
+        <v>483</v>
+      </c>
+      <c r="G34" t="s">
+        <v>484</v>
+      </c>
+      <c r="H34" t="s">
+        <v>485</v>
+      </c>
+      <c r="I34" t="s">
+        <v>486</v>
+      </c>
+      <c r="J34" t="s">
+        <v>487</v>
+      </c>
+      <c r="K34" t="s">
+        <v>488</v>
+      </c>
+      <c r="L34" t="s">
+        <v>453</v>
+      </c>
+      <c r="M34" t="s">
+        <v>489</v>
+      </c>
+      <c r="N34" t="s">
+        <v>490</v>
+      </c>
+      <c r="O34" t="s">
+        <v>491</v>
+      </c>
+      <c r="P34" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>493</v>
+      </c>
+      <c r="R34" t="s">
+        <v>494</v>
+      </c>
+      <c r="S34" t="s">
+        <v>495</v>
+      </c>
+      <c r="T34" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>604</v>
+      </c>
+      <c r="B35" t="s">
+        <v>605</v>
+      </c>
+      <c r="C35" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" t="s">
+        <v>607</v>
+      </c>
+      <c r="E35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>497</v>
+      </c>
+      <c r="H35" t="s">
+        <v>498</v>
+      </c>
+      <c r="I35" t="s">
+        <v>499</v>
+      </c>
+      <c r="J35" t="s">
+        <v>500</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" t="s">
+        <v>501</v>
+      </c>
+      <c r="N35" t="s">
+        <v>502</v>
+      </c>
+      <c r="O35" t="s">
+        <v>503</v>
+      </c>
+      <c r="P35" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>505</v>
+      </c>
+      <c r="R35" t="s">
+        <v>506</v>
+      </c>
+      <c r="S35" t="s">
+        <v>507</v>
+      </c>
+      <c r="T35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" t="s">
+        <v>609</v>
+      </c>
+      <c r="C36" t="s">
+        <v>610</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" t="s">
+        <v>509</v>
+      </c>
+      <c r="F36" t="s">
+        <v>510</v>
+      </c>
+      <c r="G36" t="s">
+        <v>511</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" t="s">
+        <v>512</v>
+      </c>
+      <c r="J36">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>513</v>
+      </c>
+      <c r="L36" t="s">
+        <v>514</v>
+      </c>
+      <c r="M36" t="s">
+        <v>515</v>
+      </c>
+      <c r="N36" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>517</v>
+      </c>
+      <c r="R36" t="s">
+        <v>518</v>
+      </c>
+      <c r="S36" t="s">
+        <v>519</v>
+      </c>
+      <c r="T36" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B37" t="s">
+        <v>612</v>
+      </c>
+      <c r="C37" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" t="s">
+        <v>614</v>
+      </c>
+      <c r="E37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G37" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" t="s">
+        <v>523</v>
+      </c>
+      <c r="I37" t="s">
+        <v>524</v>
+      </c>
+      <c r="J37" t="s">
+        <v>525</v>
+      </c>
+      <c r="K37" t="s">
+        <v>526</v>
+      </c>
+      <c r="L37" t="s">
+        <v>527</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37" t="s">
+        <v>528</v>
+      </c>
+      <c r="O37" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>530</v>
+      </c>
+      <c r="R37" t="s">
+        <v>500</v>
+      </c>
+      <c r="S37" t="s">
+        <v>531</v>
+      </c>
+      <c r="T37" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" t="s">
+        <v>615</v>
+      </c>
+      <c r="C38" t="s">
+        <v>616</v>
+      </c>
+      <c r="D38" t="s">
+        <v>617</v>
+      </c>
+      <c r="E38" t="s">
+        <v>533</v>
+      </c>
+      <c r="F38" t="s">
+        <v>534</v>
+      </c>
+      <c r="G38" t="s">
+        <v>535</v>
+      </c>
+      <c r="H38" t="s">
+        <v>536</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>537</v>
+      </c>
+      <c r="K38" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" t="s">
+        <v>538</v>
+      </c>
+      <c r="M38" t="s">
+        <v>539</v>
+      </c>
+      <c r="N38" t="s">
+        <v>540</v>
+      </c>
+      <c r="O38" t="s">
+        <v>541</v>
+      </c>
+      <c r="P38" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>543</v>
+      </c>
+      <c r="R38" t="s">
+        <v>458</v>
+      </c>
+      <c r="S38" t="s">
+        <v>544</v>
+      </c>
+      <c r="T38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>282</v>
+      </c>
+      <c r="B39" t="s">
+        <v>618</v>
+      </c>
+      <c r="C39" t="s">
+        <v>619</v>
+      </c>
+      <c r="D39" t="s">
+        <v>620</v>
+      </c>
+      <c r="E39" t="s">
+        <v>546</v>
+      </c>
+      <c r="F39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" t="s">
+        <v>547</v>
+      </c>
+      <c r="H39" t="s">
+        <v>363</v>
+      </c>
+      <c r="I39" t="s">
+        <v>548</v>
+      </c>
+      <c r="J39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>549</v>
+      </c>
+      <c r="N39" t="s">
+        <v>550</v>
+      </c>
+      <c r="O39" t="s">
+        <v>551</v>
+      </c>
+      <c r="P39" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>553</v>
+      </c>
+      <c r="R39" t="s">
+        <v>554</v>
+      </c>
+      <c r="S39" t="s">
+        <v>555</v>
+      </c>
+      <c r="T39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>621</v>
+      </c>
+      <c r="B40" t="s">
+        <v>622</v>
+      </c>
+      <c r="C40" t="s">
+        <v>299</v>
+      </c>
+      <c r="D40" t="s">
+        <v>618</v>
+      </c>
+      <c r="E40" t="s">
+        <v>556</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" t="s">
+        <v>557</v>
+      </c>
+      <c r="H40" t="s">
+        <v>329</v>
+      </c>
+      <c r="I40" t="s">
+        <v>380</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40" t="s">
+        <v>558</v>
+      </c>
+      <c r="L40" t="s">
+        <v>468</v>
+      </c>
+      <c r="M40" t="s">
+        <v>559</v>
+      </c>
+      <c r="N40" t="s">
+        <v>560</v>
+      </c>
+      <c r="O40" t="s">
+        <v>561</v>
+      </c>
+      <c r="P40" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>563</v>
+      </c>
+      <c r="R40" t="s">
+        <v>263</v>
+      </c>
+      <c r="S40" t="s">
+        <v>564</v>
+      </c>
+      <c r="T40" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
